--- a/assignments/class13/IPM_UserEval_Data.xlsx
+++ b/assignments/class13/IPM_UserEval_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Género</t>
   </si>
@@ -210,23 +210,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -238,17 +226,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,19 +247,37 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2094,6 +2094,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Valor de Referência</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -2177,6 +2180,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Valor experimental</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -2552,6 +2558,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Valor de Referência</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -2635,6 +2644,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Valor Experimental</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -2830,6 +2842,470 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2024171231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Testes: Tempo por tarefa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Valor de Referência</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dados!$B$43:$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dados!$B$44:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.414351851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2175925925925917E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E53A-45D7-ADE6-BA9EA7E86BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Valor experimental</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dados!$B$43:$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dados!$B$45:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5902777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9953703703703691E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4438657407407413E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E53A-45D7-ADE6-BA9EA7E86BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1754327951"/>
+        <c:axId val="1987087775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1754327951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1987087775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1987087775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754327951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3159,6 +3635,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
@@ -5640,6 +6156,502 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6365,6 +7377,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8C8C53-292F-4C3C-ABD7-E902A148A22E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6667,8 +7717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6677,57 +7727,53 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" style="7" customWidth="1"/>
+    <col min="16" max="24" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="27"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
     </row>
-    <row r="3" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6737,37 +7783,37 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <v>1</v>
       </c>
       <c r="P3" s="1">
@@ -6808,40 +7854,40 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="11">
         <v>1.2847222222222223E-3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>17</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="11">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>15</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <v>2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="11">
         <v>7.8703703703703705E-4</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="8">
         <v>11</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>4</v>
       </c>
       <c r="P4" s="1">
@@ -6882,40 +7928,40 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="11">
         <v>1.4247685185185186E-3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>32</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="11">
         <v>1.0196759259259258E-3</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <v>14</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <v>13</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <v>4</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <v>5</v>
       </c>
       <c r="P5" s="1">
@@ -6956,40 +8002,40 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="11">
         <v>2.2523148148148146E-3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>31</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <v>1.0682870370370371E-3</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <v>17</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="11">
         <v>7.8703703703703705E-4</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="8">
         <v>22</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="8">
         <v>2</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <v>4</v>
       </c>
       <c r="P6" s="1">
@@ -7030,40 +8076,40 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="11">
         <v>1.5046296296296294E-3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <v>36</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="11">
         <v>8.7268518518518511E-4</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>15</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="8">
         <v>0</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="11">
         <v>5.8912037037037038E-4</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="8">
         <v>17</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="8">
         <v>1</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <v>5</v>
       </c>
       <c r="P7" s="1">
@@ -7104,40 +8150,40 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="11">
         <v>1.4849537037037036E-3</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <v>28</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="11">
         <v>5.7638888888888887E-4</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>14</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="8">
         <v>0</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="11">
         <v>4.1435185185185178E-4</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="8">
         <v>10</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="8">
         <v>0</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>4</v>
       </c>
       <c r="P8" s="1">
@@ -7178,18 +8224,18 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="7"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7201,18 +8247,18 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="7"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -7224,18 +8270,18 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="7"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7247,18 +8293,18 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="7"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7270,18 +8316,18 @@
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="7"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7293,18 +8339,18 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="7"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7316,18 +8362,18 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="7"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7339,18 +8385,18 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="7"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -7362,18 +8408,18 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="7"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7385,18 +8431,18 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="7"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -7406,80 +8452,80 @@
         <f>AVERAGE(B4:B18)</f>
         <v>0.8</v>
       </c>
-      <c r="F19" s="18">
-        <f>AVERAGE(F4:F18)</f>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19:O19" si="0">AVERAGE(F4:F18)</f>
         <v>1.5902777777777777E-3</v>
       </c>
-      <c r="G19" s="11">
-        <f>AVERAGE(G4:G18)</f>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
-      <c r="H19" s="11">
-        <f>AVERAGE(H4:H18)</f>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="I19" s="18">
-        <f>AVERAGE(I4:I18)</f>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
         <v>8.9953703703703691E-4</v>
       </c>
-      <c r="J19" s="11">
-        <f>AVERAGE(J4:J18)</f>
+      <c r="J19" s="7">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K19" s="11">
-        <f>AVERAGE(K4:K18)</f>
+      <c r="K19" s="7">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="L19" s="18">
-        <f>AVERAGE(L4:L18)</f>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
         <v>6.4438657407407413E-4</v>
       </c>
-      <c r="M19" s="11">
-        <f>AVERAGE(M4:M18)</f>
+      <c r="M19" s="7">
+        <f t="shared" si="0"/>
         <v>14.6</v>
       </c>
-      <c r="N19" s="11">
-        <f>AVERAGE(N4:N18)</f>
+      <c r="N19" s="7">
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="O19" s="11">
-        <f>AVERAGE(O4:O18)</f>
+      <c r="O19" s="7">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P19" s="11">
-        <f t="shared" ref="P19:X19" si="0">AVERAGE(P4:P18)</f>
+      <c r="P19" s="7">
+        <f t="shared" ref="P19:X19" si="1">AVERAGE(P4:P18)</f>
         <v>1.8</v>
       </c>
-      <c r="Q19" s="11">
-        <f t="shared" si="0"/>
+      <c r="Q19" s="7">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="R19" s="11">
-        <f t="shared" si="0"/>
+      <c r="R19" s="7">
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="S19" s="11">
-        <f t="shared" si="0"/>
+      <c r="S19" s="7">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T19" s="11">
-        <f t="shared" si="0"/>
+      <c r="T19" s="7">
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="U19" s="11">
-        <f t="shared" si="0"/>
+      <c r="U19" s="7">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="V19" s="11">
-        <f t="shared" si="0"/>
+      <c r="V19" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W19" s="11">
-        <f t="shared" si="0"/>
+      <c r="W19" s="7">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X19" s="11">
-        <f t="shared" si="0"/>
+      <c r="X19" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7487,10 +8533,10 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E21" s="24"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -7500,22 +8546,22 @@
         <f>COUNTIF(B4:B18,0)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="19" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19" t="s">
+      <c r="J22" s="31"/>
+      <c r="K22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="19"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -7525,179 +8571,179 @@
         <f>COUNTIF(B4:B18,1)</f>
         <v>12</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="19">
         <v>0</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="19">
         <v>1</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="8">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="8">
         <v>2</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C25">
         <f>COUNTIF(C4:C18,1)</f>
         <v>4</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="12" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <v>3</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="8">
         <v>3</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C26">
         <f>COUNTIF(C4:C18,2)</f>
         <v>7</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="20" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="14">
         <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="14">
         <v>4</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C27">
         <f>COUNTIF(C4:C18,3)</f>
         <v>4</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="20" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="14">
         <v>5</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C28">
         <f>COUNTIF(C4:C18,4)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="20" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="14">
         <v>6</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C29">
         <f>COUNTIF(C4:C18,5)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C30">
         <f>COUNTIF(C4:C18,6)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E31" s="24"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -7707,7 +8753,7 @@
         <f>COUNTIF(D4:D18,1)</f>
         <v>2</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -7737,7 +8783,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C37">
@@ -7746,7 +8792,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C38">
@@ -7755,7 +8801,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C39">
@@ -7764,7 +8810,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C40">
@@ -7773,131 +8819,131 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30" t="s">
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="31">
+      <c r="B44" s="22">
         <v>3.414351851851852E-3</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="23">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="23">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="17">
         <v>15</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="17">
         <v>44</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="17">
         <v>2</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="17">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="17">
         <v>4</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="31">
+      <c r="B45" s="22">
         <f>F19</f>
         <v>1.5902777777777777E-3</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="23">
         <f>I19</f>
         <v>8.9953703703703691E-4</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="23">
         <f>L19</f>
         <v>6.4438657407407413E-4</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="17">
         <f>G19</f>
         <v>28.8</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="17">
         <f>J19</f>
         <v>15</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="17">
         <f>M19</f>
         <v>14.6</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="17">
         <f>H19</f>
         <v>1.8</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="17">
         <f>K19</f>
         <v>0.6</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="17">
         <f>N19</f>
         <v>1.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:X2"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7908,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
